--- a/data/134/DEUSTATIS/Harmonised index of consumer prices.xlsx
+++ b/data/134/DEUSTATIS/Harmonised index of consumer prices.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="66">
   <si>
     <t>Harmonised index of consumer prices: Germany, months,
 individual consumption by purpose (COICOP)</t>
@@ -201,13 +201,16 @@
     <t>2021</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:16:28</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:53:27</t>
   </si>
 </sst>
 </file>
@@ -20710,72 +20713,821 @@
       <c r="A344" t="s" s="13">
         <v>36</v>
       </c>
-      <c r="B344" t="s" s="10">
+      <c r="B344" t="n" s="10">
+        <v>115.1</v>
+      </c>
+      <c r="C344" t="n" s="10">
+        <v>117.3</v>
+      </c>
+      <c r="D344" t="n" s="10">
+        <v>106.4</v>
+      </c>
+      <c r="E344" t="n" s="10">
+        <v>110.2</v>
+      </c>
+      <c r="F344" t="n" s="10">
+        <v>110.0</v>
+      </c>
+      <c r="G344" t="n" s="10">
+        <v>113.3</v>
+      </c>
+      <c r="H344" t="n" s="10">
+        <v>105.2</v>
+      </c>
+      <c r="I344" t="n" s="10">
+        <v>115.3</v>
+      </c>
+      <c r="J344" t="n" s="10">
+        <v>106.9</v>
+      </c>
+      <c r="K344" t="n" s="10">
+        <v>106.8</v>
+      </c>
+      <c r="L344" t="n" s="10">
+        <v>118.1</v>
+      </c>
+      <c r="M344" t="n" s="10">
+        <v>116.6</v>
+      </c>
+      <c r="N344" t="n" s="10">
+        <v>109.8</v>
+      </c>
+      <c r="O344" t="n" s="10">
+        <v>95.0</v>
+      </c>
+      <c r="P344" t="n" s="10">
+        <v>108.1</v>
+      </c>
+      <c r="Q344" t="n" s="10">
+        <v>102.7</v>
+      </c>
+      <c r="R344" t="n" s="10">
+        <v>116.5</v>
+      </c>
+      <c r="S344" t="n" s="10">
+        <v>112.1</v>
+      </c>
+      <c r="T344" t="n" s="10">
+        <v>111.3</v>
+      </c>
+    </row>
+    <row r="345" ht="22.5" customHeight="true">
+      <c r="A345" t="s" s="14">
         <v>62</v>
       </c>
-      <c r="C344" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="D344" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="E344" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="F344" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="G344" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="H344" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="I344" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="J344" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="K344" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="L344" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="M344" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="N344" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="O344" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="P344" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="Q344" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="R344" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="S344" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="T344" t="s" s="10">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="s" s="11">
+    </row>
+    <row r="346">
+      <c r="A346" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="B346" t="n" s="10">
+        <v>116.8</v>
+      </c>
+      <c r="C346" t="n" s="10">
+        <v>118.1</v>
+      </c>
+      <c r="D346" t="n" s="10">
+        <v>101.8</v>
+      </c>
+      <c r="E346" t="n" s="10">
+        <v>114.0</v>
+      </c>
+      <c r="F346" t="n" s="10">
+        <v>111.7</v>
+      </c>
+      <c r="G346" t="n" s="10">
+        <v>123.4</v>
+      </c>
+      <c r="H346" t="n" s="10">
+        <v>118.8</v>
+      </c>
+      <c r="I346" t="n" s="10">
+        <v>121.3</v>
+      </c>
+      <c r="J346" t="n" s="10">
+        <v>107.7</v>
+      </c>
+      <c r="K346" t="n" s="10">
+        <v>106.9</v>
+      </c>
+      <c r="L346" t="n" s="10">
+        <v>119.5</v>
+      </c>
+      <c r="M346" t="n" s="10">
+        <v>117.5</v>
+      </c>
+      <c r="N346" t="n" s="10">
+        <v>109.3</v>
+      </c>
+      <c r="O346" t="n" s="10">
+        <v>95.2</v>
+      </c>
+      <c r="P346" t="n" s="10">
+        <v>105.2</v>
+      </c>
+      <c r="Q346" t="n" s="10">
+        <v>103.3</v>
+      </c>
+      <c r="R346" t="n" s="10">
+        <v>117.3</v>
+      </c>
+      <c r="S346" t="n" s="10">
+        <v>111.4</v>
+      </c>
+      <c r="T346" t="n" s="10">
+        <v>112.3</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s" s="13">
+        <v>26</v>
+      </c>
+      <c r="B347" t="n" s="10">
+        <v>118.0</v>
+      </c>
+      <c r="C347" t="n" s="10">
+        <v>118.8</v>
+      </c>
+      <c r="D347" t="n" s="10">
+        <v>102.1</v>
+      </c>
+      <c r="E347" t="n" s="10">
+        <v>115.2</v>
+      </c>
+      <c r="F347" t="n" s="10">
+        <v>112.0</v>
+      </c>
+      <c r="G347" t="n" s="10">
+        <v>125.7</v>
+      </c>
+      <c r="H347" t="n" s="10">
+        <v>122.0</v>
+      </c>
+      <c r="I347" t="n" s="10">
+        <v>127.9</v>
+      </c>
+      <c r="J347" t="n" s="10">
+        <v>108.8</v>
+      </c>
+      <c r="K347" t="n" s="10">
+        <v>107.0</v>
+      </c>
+      <c r="L347" t="n" s="10">
+        <v>121.4</v>
+      </c>
+      <c r="M347" t="n" s="10">
+        <v>119.1</v>
+      </c>
+      <c r="N347" t="n" s="10">
+        <v>109.8</v>
+      </c>
+      <c r="O347" t="n" s="10">
+        <v>95.2</v>
+      </c>
+      <c r="P347" t="n" s="10">
+        <v>106.3</v>
+      </c>
+      <c r="Q347" t="n" s="10">
+        <v>103.4</v>
+      </c>
+      <c r="R347" t="n" s="10">
+        <v>117.9</v>
+      </c>
+      <c r="S347" t="n" s="10">
+        <v>111.7</v>
+      </c>
+      <c r="T347" t="n" s="10">
+        <v>113.3</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s" s="13">
+        <v>27</v>
+      </c>
+      <c r="B348" t="s" s="10">
         <v>63</v>
       </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="s" s="12">
+      <c r="C348" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="D348" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="E348" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="F348" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="G348" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="H348" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="I348" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="J348" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="K348" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="L348" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="M348" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="N348" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="O348" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="P348" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="Q348" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="R348" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="S348" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="T348" t="s" s="10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s" s="13">
+        <v>28</v>
+      </c>
+      <c r="B349" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="C349" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="D349" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="E349" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="F349" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="G349" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="H349" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="I349" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="J349" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="K349" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="L349" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="M349" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="N349" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="O349" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="P349" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="Q349" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="R349" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="S349" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="T349" t="s" s="10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s" s="13">
+        <v>29</v>
+      </c>
+      <c r="B350" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="C350" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="D350" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="E350" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="F350" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="G350" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="H350" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="I350" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="J350" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="K350" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="L350" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="M350" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="N350" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="O350" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="P350" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="Q350" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="R350" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="S350" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="T350" t="s" s="10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="B351" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="C351" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="D351" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="E351" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="F351" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="G351" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="H351" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="I351" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="J351" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="K351" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="L351" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="M351" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="N351" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="O351" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="P351" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="Q351" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="R351" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="S351" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="T351" t="s" s="10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="B352" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="C352" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="D352" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="E352" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="F352" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="G352" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="H352" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="I352" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="J352" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="K352" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="L352" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="M352" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="N352" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="O352" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="P352" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="Q352" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="R352" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="S352" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="T352" t="s" s="10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s" s="13">
+        <v>32</v>
+      </c>
+      <c r="B353" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="C353" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="D353" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="E353" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="F353" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="G353" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="H353" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="I353" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="J353" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="K353" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="L353" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="M353" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="N353" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="O353" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="P353" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="Q353" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="R353" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="S353" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="T353" t="s" s="10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s" s="13">
+        <v>33</v>
+      </c>
+      <c r="B354" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="C354" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="D354" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="E354" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="F354" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="G354" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="H354" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="I354" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="J354" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="K354" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="L354" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="M354" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="N354" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="O354" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="P354" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="Q354" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="R354" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="S354" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="T354" t="s" s="10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s" s="13">
+        <v>34</v>
+      </c>
+      <c r="B355" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="C355" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="D355" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="E355" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="F355" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="G355" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="H355" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="I355" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="J355" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="K355" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="L355" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="M355" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="N355" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="O355" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="P355" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="Q355" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="R355" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="S355" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="T355" t="s" s="10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="B356" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="C356" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="D356" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="E356" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="F356" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="G356" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="H356" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="I356" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="J356" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="K356" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="L356" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="M356" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="N356" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="O356" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="P356" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="Q356" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="R356" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="S356" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="T356" t="s" s="10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s" s="13">
+        <v>36</v>
+      </c>
+      <c r="B357" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="C357" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="D357" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="E357" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="F357" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="G357" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="H357" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="I357" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="J357" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="K357" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="L357" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="M357" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="N357" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="O357" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="P357" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="Q357" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="R357" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="S357" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="T357" t="s" s="10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s" s="11">
         <v>64</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s" s="12">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -20811,11 +21563,12 @@
     <mergeCell ref="A306:T306"/>
     <mergeCell ref="A319:T319"/>
     <mergeCell ref="A332:T332"/>
+    <mergeCell ref="A345:T345"/>
     <mergeCell ref="A1:T1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:16:34&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:53:32&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>